--- a/pabi_account_report/xlsx_template/xlsx_report_cheque_register.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_cheque_register.xlsx
@@ -169,7 +169,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -200,6 +200,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -243,7 +247,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="31.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="29.71"/>
@@ -273,75 +277,75 @@
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+    <row r="10" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="10" t="s">
         <v>17</v>
       </c>
     </row>
